--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -22,6 +22,7 @@
     <sheet name="Lookup List" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_1">#REF!</definedName>
     <definedName name="AprSun1">DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1))+1</definedName>
     <definedName name="AugSun1">DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1))+1</definedName>
     <definedName name="CalendarYear">Jan!$K$1</definedName>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
   <si>
     <t>选择
 年份：</t>
@@ -160,6 +161,10 @@
     <t>下午打球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>完成Dijskstra+Heap算法在CatSU工程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -277,6 +282,22 @@
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -613,7 +634,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -621,6 +642,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -738,9 +761,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 1" xfId="3" builtinId="31" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="4" builtinId="45" customBuiltin="1"/>
@@ -2032,7 +2057,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2054,7 +2079,7 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="2:8" ht="21.75" customHeight="1">
+    <row r="2" spans="2:8" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
         <v/>
@@ -2107,7 +2132,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="47" customHeight="1">
+    <row r="4" spans="2:8" s="9" customFormat="1" ht="47" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2118,7 +2143,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" ht="58" customHeight="1">
+    <row r="5" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -2129,7 +2154,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" ht="14" customHeight="1">
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B6" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
         <v>41980</v>
@@ -2159,16 +2184,18 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="67" customHeight="1">
+    <row r="7" spans="2:8" s="9" customFormat="1" ht="67" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2177,7 +2204,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B9" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
         <v>41987</v>
@@ -2207,7 +2234,7 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2216,7 +2243,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
         <v>41994</v>
@@ -2246,7 +2273,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2255,7 +2282,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
         <v>42001</v>
@@ -2285,7 +2312,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1">
+    <row r="14" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -2294,7 +2321,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:8" ht="14" customHeight="1">
+    <row r="15" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B15" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
         <v/>
@@ -2311,7 +2338,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="16" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1" thickBot="1">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="33"/>

--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="20" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="2700" yWindow="15" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="14" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="SepSun1">DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1))+1</definedName>
     <definedName name="Year">YearLookup[]</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Hei"/>
-            <charset val="134"/>
+            <family val="1"/>
           </rPr>
           <t>当您单击显示如上年份的单元格时，可以看到可供选择的年份弹出列表。当您做出选择时，此工作簿中所有月份的日历表将随之自动更新。
 要更改该列表中的可用年份，请见“查阅列表”工作表。
@@ -79,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Hei"/>
-            <charset val="134"/>
+            <family val="1"/>
           </rPr>
           <t>轻松将您自己的形象应用于此日历。这个模板使用主题格式，您只需单击一下便可将字体、颜色和图形的格式效果应用于整个工作簿。
 在“开始”选项卡的“主题”组中查找主题。可以从主题库中现有的几十个内置主题中选择，也可找到选项仅改变当前主题的字体或颜色。</t>
@@ -104,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Hei"/>
-            <charset val="134"/>
+            <family val="1"/>
           </rPr>
           <t>此列表填充的选项出现于“一月”工作表的年份弹出列表中。要添加更多年份，请在最后一个现有条目正下方的单元格中开始键入，列表将自动展开。</t>
         </r>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="16">
   <si>
     <t>选择
 年份：</t>
@@ -165,15 +165,19 @@
     <t>完成Dijskstra+Heap算法在CatSU工程中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>修改论文（按国外老师的意见修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -230,58 +234,58 @@
     <font>
       <sz val="11"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Hei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -298,6 +302,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -645,7 +656,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,15 +771,18 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 1" xfId="3" builtinId="31" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="4" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -906,7 +920,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="564B3C"/>
@@ -1157,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1167,14 +1181,14 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="9"/>
-    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="9"/>
+    <col min="10" max="10" width="15.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1218,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14" customHeight="1">
+    <row r="3" spans="2:11" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JanSun1)=CalendarYear,MONTH(JanSun1)=1),JanSun1, "")</f>
         <v/>
@@ -1248,7 +1262,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="58" customHeight="1">
+    <row r="4" spans="2:11" ht="57.95" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1273,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:11" ht="14" customHeight="1">
+    <row r="5" spans="2:11" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JanSun1+7)=CalendarYear,MONTH(JanSun1+7)=1),JanSun1+7, "")</f>
         <v>41644</v>
@@ -1289,7 +1303,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="58" customHeight="1">
+    <row r="6" spans="2:11" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1298,7 +1312,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="14" customHeight="1">
+    <row r="7" spans="2:11" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JanSun1+14)=CalendarYear,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
         <v>41651</v>
@@ -1328,7 +1342,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="58" customHeight="1">
+    <row r="8" spans="2:11" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1337,7 +1351,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="14" customHeight="1">
+    <row r="9" spans="2:11" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JanSun1+21)=CalendarYear,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
         <v>41658</v>
@@ -1367,7 +1381,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="58" customHeight="1">
+    <row r="10" spans="2:11" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1376,7 +1390,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="14" customHeight="1">
+    <row r="11" spans="2:11" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JanSun1+28)=CalendarYear,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
         <v>41665</v>
@@ -1406,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="58" customHeight="1">
+    <row r="12" spans="2:11" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1415,7 +1429,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="14" customHeight="1">
+    <row r="13" spans="2:11" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JanSun1+35)=CalendarYear,MONTH(JanSun1+35)=1),JanSun1+35, "")</f>
         <v/>
@@ -1432,7 +1446,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:11" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -1469,7 +1483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1479,11 +1493,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1521,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(OctSun1)=CalendarYear,MONTH(OctSun1)=10),OctSun1, "")</f>
         <v/>
@@ -1551,7 +1565,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1560,7 +1574,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(OctSun1+7)=CalendarYear,MONTH(OctSun1+7)=10),OctSun1+7, "")</f>
         <v>41917</v>
@@ -1590,7 +1604,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1599,7 +1613,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(OctSun1+14)=CalendarYear,MONTH(OctSun1+14)=10),OctSun1+14, "")</f>
         <v>41924</v>
@@ -1629,7 +1643,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1638,7 +1652,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(OctSun1+21)=CalendarYear,MONTH(OctSun1+21)=10),OctSun1+21, "")</f>
         <v>41931</v>
@@ -1668,7 +1682,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1677,7 +1691,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(OctSun1+28)=CalendarYear,MONTH(OctSun1+28)=10),OctSun1+28, "")</f>
         <v>41938</v>
@@ -1707,7 +1721,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1716,7 +1730,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(OctSun1+35)=CalendarYear,MONTH(OctSun1+35)=10),OctSun1+35, "")</f>
         <v/>
@@ -1733,7 +1747,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -1761,7 +1775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1771,11 +1785,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1813,7 +1827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(NovSun1)=CalendarYear,MONTH(NovSun1)=11),NovSun1, "")</f>
         <v/>
@@ -1843,7 +1857,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1852,7 +1866,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(NovSun1+7)=CalendarYear,MONTH(NovSun1+7)=11),NovSun1+7, "")</f>
         <v>41945</v>
@@ -1882,7 +1896,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1891,7 +1905,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(NovSun1+14)=CalendarYear,MONTH(NovSun1+14)=11),NovSun1+14, "")</f>
         <v>41952</v>
@@ -1921,7 +1935,7 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1930,7 +1944,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(NovSun1+21)=CalendarYear,MONTH(NovSun1+21)=11),NovSun1+21, "")</f>
         <v>41959</v>
@@ -1960,7 +1974,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1969,7 +1983,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(NovSun1+28)=CalendarYear,MONTH(NovSun1+28)=11),NovSun1+28, "")</f>
         <v>41966</v>
@@ -1999,7 +2013,7 @@
         <v>41972</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2008,7 +2022,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(NovSun1+35)=CalendarYear,MONTH(NovSun1+35)=11),NovSun1+35, "")</f>
         <v>41973</v>
@@ -2022,7 +2036,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -2050,21 +2064,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2102,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="3" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
         <v/>
@@ -2132,7 +2146,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="9" customFormat="1" ht="47" customHeight="1">
+    <row r="4" spans="2:8" s="9" customFormat="1" ht="47.1" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2143,7 +2157,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="5" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -2154,7 +2168,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B6" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
         <v>41980</v>
@@ -2184,7 +2198,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="9" customFormat="1" ht="67" customHeight="1">
+    <row r="7" spans="2:8" s="9" customFormat="1" ht="66.95" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -2195,16 +2209,18 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="9" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B9" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
         <v>41987</v>
@@ -2234,7 +2250,7 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="10" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2243,7 +2259,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="11" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
         <v>41994</v>
@@ -2273,7 +2289,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="12" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2282,7 +2298,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="13" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
         <v>42001</v>
@@ -2312,7 +2328,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="14" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -2321,7 +2337,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="15" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B15" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
         <v/>
@@ -2338,7 +2354,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1" thickBot="1">
+    <row r="16" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1" thickBot="1">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="33"/>
@@ -2366,92 +2382,92 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="9">
         <v>2010</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="14">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="14">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="9">
         <v>2012</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="14">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="9">
         <v>2013</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="14">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="9">
         <v>2014</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="14">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="9">
         <v>2015</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="14">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="31">
         <v>2016</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="14">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="31">
         <v>2017</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="14">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="31"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="14">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="14">
+    <row r="12" spans="1:3" ht="16.5">
       <c r="B12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2462,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2472,11 +2488,11 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2514,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(FebSun1)=CalendarYear,MONTH(FebSun1)=2),FebSun1, "")</f>
         <v/>
@@ -2544,7 +2560,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2553,7 +2569,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(FebSun1+7)=CalendarYear,MONTH(FebSun1+7)=2),FebSun1+7, "")</f>
         <v>41672</v>
@@ -2583,7 +2599,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2592,7 +2608,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(FebSun1+14)=CalendarYear,MONTH(FebSun1+14)=2),FebSun1+14, "")</f>
         <v>41679</v>
@@ -2622,7 +2638,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2631,7 +2647,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(FebSun1+21)=CalendarYear,MONTH(FebSun1+21)=2),FebSun1+21, "")</f>
         <v>41686</v>
@@ -2661,7 +2677,7 @@
         <v>41692</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2670,7 +2686,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(FebSun1+28)=CalendarYear,MONTH(FebSun1+28)=2),FebSun1+28, "")</f>
         <v>41693</v>
@@ -2700,7 +2716,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2709,7 +2725,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>9</v>
       </c>
@@ -2720,7 +2736,7 @@
       <c r="G13" s="40"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="38"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -2748,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2758,11 +2774,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2800,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MarSun1)=CalendarYear,MONTH(MarSun1)=3),MarSun1, "")</f>
         <v/>
@@ -2830,7 +2846,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2839,7 +2855,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MarSun1+7)=CalendarYear,MONTH(MarSun1+7)=3),MarSun1+7, "")</f>
         <v>41700</v>
@@ -2869,7 +2885,7 @@
         <v>41706</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2878,7 +2894,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MarSun1+14)=CalendarYear,MONTH(MarSun1+14)=3),MarSun1+14, "")</f>
         <v>41707</v>
@@ -2908,7 +2924,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2917,7 +2933,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MarSun1+21)=CalendarYear,MONTH(MarSun1+21)=3),MarSun1+21, "")</f>
         <v>41714</v>
@@ -2947,7 +2963,7 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2956,7 +2972,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MarSun1+28)=CalendarYear,MONTH(MarSun1+28)=3),MarSun1+28, "")</f>
         <v>41721</v>
@@ -2986,7 +3002,7 @@
         <v>41727</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2995,7 +3011,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(MarSun1+35)=CalendarYear,MONTH(MarSun1+35)=3),MarSun1+35, "")</f>
         <v>41728</v>
@@ -3012,7 +3028,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="33"/>
@@ -3040,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3050,11 +3066,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3092,7 +3108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AprSun1)=CalendarYear,MONTH(AprSun1)=4),AprSun1, "")</f>
         <v/>
@@ -3122,7 +3138,7 @@
         <v>41734</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3131,7 +3147,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AprSun1+7)=CalendarYear,MONTH(AprSun1+7)=4),AprSun1+7, "")</f>
         <v>41735</v>
@@ -3161,7 +3177,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3170,7 +3186,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AprSun1+14)=CalendarYear,MONTH(AprSun1+14)=4),AprSun1+14, "")</f>
         <v>41742</v>
@@ -3200,7 +3216,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3209,7 +3225,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AprSun1+21)=CalendarYear,MONTH(AprSun1+21)=4),AprSun1+21, "")</f>
         <v>41749</v>
@@ -3239,7 +3255,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3248,7 +3264,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AprSun1+28)=CalendarYear,MONTH(AprSun1+28)=4),AprSun1+28, "")</f>
         <v>41756</v>
@@ -3278,7 +3294,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3287,7 +3303,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(AprSun1+35)=CalendarYear,MONTH(AprSun1+35)=4),AprSun1+35, "")</f>
         <v/>
@@ -3301,7 +3317,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -3329,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3339,11 +3355,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3381,7 +3397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MaySun1)=CalendarYear,MONTH(MaySun1)=5),MaySun1, "")</f>
         <v/>
@@ -3411,7 +3427,7 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3420,7 +3436,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MaySun1+7)=CalendarYear,MONTH(MaySun1+7)=5),MaySun1+7, "")</f>
         <v>41763</v>
@@ -3450,7 +3466,7 @@
         <v>41769</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3459,7 +3475,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MaySun1+14)=CalendarYear,MONTH(MaySun1+14)=5),MaySun1+14, "")</f>
         <v>41770</v>
@@ -3489,7 +3505,7 @@
         <v>41776</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3498,7 +3514,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MaySun1+21)=CalendarYear,MONTH(MaySun1+21)=5),MaySun1+21, "")</f>
         <v>41777</v>
@@ -3528,7 +3544,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="28"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3537,7 +3553,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MaySun1+28)=CalendarYear,MONTH(MaySun1+28)=5),MaySun1+28, "")</f>
         <v>41784</v>
@@ -3567,7 +3583,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3576,7 +3592,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(MaySun1+35)=CalendarYear,MONTH(MaySun1+35)=5),MaySun1+35, "")</f>
         <v/>
@@ -3593,7 +3609,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -3621,7 +3637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3631,11 +3647,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3673,7 +3689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(JunSun1)=CalendarYear,MONTH(JunSun1)=6),JunSun1, "")</f>
         <v>41791</v>
@@ -3703,7 +3719,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3712,7 +3728,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JunSun1+7)=CalendarYear,MONTH(JunSun1+7)=6),JunSun1+7, "")</f>
         <v>41798</v>
@@ -3742,7 +3758,7 @@
         <v>41804</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3751,7 +3767,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JunSun1+14)=CalendarYear,MONTH(JunSun1+14)=6),JunSun1+14, "")</f>
         <v>41805</v>
@@ -3781,7 +3797,7 @@
         <v>41811</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3790,7 +3806,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JunSun1+21)=CalendarYear,MONTH(JunSun1+21)=6),JunSun1+21, "")</f>
         <v>41812</v>
@@ -3820,7 +3836,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3829,7 +3845,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JunSun1+28)=CalendarYear,MONTH(JunSun1+28)=6),JunSun1+28, "")</f>
         <v>41819</v>
@@ -3859,7 +3875,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3868,7 +3884,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JunSun1+35)=CalendarYear,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
         <v/>
@@ -3882,7 +3898,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -3910,7 +3926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3920,11 +3936,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3962,7 +3978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JulSun1)=CalendarYear,MONTH(JulSun1)=7),JulSun1, "")</f>
         <v/>
@@ -3992,7 +4008,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4001,7 +4017,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JulSun1+7)=CalendarYear,MONTH(JulSun1+7)=7),JulSun1+7, "")</f>
         <v>41826</v>
@@ -4031,7 +4047,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4040,7 +4056,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JulSun1+14)=CalendarYear,MONTH(JulSun1+14)=7),JulSun1+14, "")</f>
         <v>41833</v>
@@ -4070,7 +4086,7 @@
         <v>41839</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4079,7 +4095,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JulSun1+21)=CalendarYear,MONTH(JulSun1+21)=7),JulSun1+21, "")</f>
         <v>41840</v>
@@ -4109,7 +4125,7 @@
         <v>41846</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4118,7 +4134,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JulSun1+28)=CalendarYear,MONTH(JulSun1+28)=7),JulSun1+28, "")</f>
         <v>41847</v>
@@ -4148,7 +4164,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4157,7 +4173,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(JulSun1+35)=CalendarYear,MONTH(JulSun1+35)=7),JulSun1+35, "")</f>
         <v/>
@@ -4174,7 +4190,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -4202,7 +4218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4212,11 +4228,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4254,7 +4270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AugSun1)=CalendarYear,MONTH(AugSun1)=8),AugSun1, "")</f>
         <v/>
@@ -4284,7 +4300,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4293,7 +4309,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AugSun1+7)=CalendarYear,MONTH(AugSun1+7)=8),AugSun1+7, "")</f>
         <v>41854</v>
@@ -4323,7 +4339,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4332,7 +4348,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AugSun1+14)=CalendarYear,MONTH(AugSun1+14)=8),AugSun1+14, "")</f>
         <v>41861</v>
@@ -4362,7 +4378,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4371,7 +4387,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AugSun1+21)=CalendarYear,MONTH(AugSun1+21)=8),AugSun1+21, "")</f>
         <v>41868</v>
@@ -4401,7 +4417,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4410,7 +4426,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AugSun1+28)=CalendarYear,MONTH(AugSun1+28)=8),AugSun1+28, "")</f>
         <v>41875</v>
@@ -4440,7 +4456,7 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4449,7 +4465,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(AugSun1+35)=CalendarYear,MONTH(AugSun1+35)=8),AugSun1+35, "")</f>
         <v>41882</v>
@@ -4466,7 +4482,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="33"/>
@@ -4494,7 +4510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4504,11 +4520,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4546,7 +4562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(SepSun1)=CalendarYear,MONTH(SepSun1)=9),SepSun1, "")</f>
         <v/>
@@ -4576,7 +4592,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4585,7 +4601,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(SepSun1+7)=CalendarYear,MONTH(SepSun1+7)=9),SepSun1+7, "")</f>
         <v>41889</v>
@@ -4615,7 +4631,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4624,7 +4640,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(SepSun1+14)=CalendarYear,MONTH(SepSun1+14)=9),SepSun1+14, "")</f>
         <v>41896</v>
@@ -4654,7 +4670,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4663,7 +4679,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(SepSun1+21)=CalendarYear,MONTH(SepSun1+21)=9),SepSun1+21, "")</f>
         <v>41903</v>
@@ -4693,7 +4709,7 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4702,7 +4718,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(SepSun1+28)=CalendarYear,MONTH(SepSun1+28)=9),SepSun1+28, "")</f>
         <v>41910</v>
@@ -4732,7 +4748,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4741,7 +4757,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(SepSun1+35)=CalendarYear,MONTH(SepSun1+35)=9),SepSun1+35, "")</f>
         <v/>
@@ -4755,7 +4771,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>

--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="15" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="2700" yWindow="20" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="14" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="SepSun1">DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1))+1</definedName>
     <definedName name="Year">YearLookup[]</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="18">
   <si>
     <t>选择
 年份：</t>
@@ -169,15 +169,24 @@
     <t>修改论文（按国外老师的意见修改）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>阅读论文提出粒子群算法解决最短路径的一些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.找到解决系数相乘的方法（敢序列的长度与系数相乘）
+2.与TSP的区别是TSP要求遍历每一个城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -741,6 +750,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="57" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,18 +783,15 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 1" xfId="3" builtinId="31" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="4" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -920,7 +929,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="564B3C"/>
@@ -1171,7 +1180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1181,27 +1190,27 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="9"/>
-    <col min="10" max="10" width="15.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="9"/>
+    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.1" customHeight="1">
+    <row r="3" spans="2:11" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JanSun1)=CalendarYear,MONTH(JanSun1)=1),JanSun1, "")</f>
         <v/>
@@ -1262,7 +1271,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="57.95" customHeight="1">
+    <row r="4" spans="2:11" ht="58" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1282,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:11" ht="14.1" customHeight="1">
+    <row r="5" spans="2:11" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JanSun1+7)=CalendarYear,MONTH(JanSun1+7)=1),JanSun1+7, "")</f>
         <v>41644</v>
@@ -1303,7 +1312,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="57.95" customHeight="1">
+    <row r="6" spans="2:11" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1312,7 +1321,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="14.1" customHeight="1">
+    <row r="7" spans="2:11" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JanSun1+14)=CalendarYear,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
         <v>41651</v>
@@ -1342,7 +1351,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="57.95" customHeight="1">
+    <row r="8" spans="2:11" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1351,7 +1360,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="14.1" customHeight="1">
+    <row r="9" spans="2:11" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JanSun1+21)=CalendarYear,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
         <v>41658</v>
@@ -1381,7 +1390,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="57.95" customHeight="1">
+    <row r="10" spans="2:11" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1390,7 +1399,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="14.1" customHeight="1">
+    <row r="11" spans="2:11" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JanSun1+28)=CalendarYear,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
         <v>41665</v>
@@ -1420,7 +1429,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="57.95" customHeight="1">
+    <row r="12" spans="2:11" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1429,7 +1438,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="14.1" customHeight="1">
+    <row r="13" spans="2:11" ht="14" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JanSun1+35)=CalendarYear,MONTH(JanSun1+35)=1),JanSun1+35, "")</f>
         <v/>
@@ -1438,22 +1447,22 @@
         <f>IF(AND(YEAR(JanSun1+36)=CalendarYear,MONTH(JanSun1+36)=1),JanSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:11" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:11" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1483,7 +1492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1493,24 +1502,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,10,1)</f>
         <v>41913</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -1535,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(OctSun1)=CalendarYear,MONTH(OctSun1)=10),OctSun1, "")</f>
         <v/>
@@ -1565,7 +1574,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1574,7 +1583,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(OctSun1+7)=CalendarYear,MONTH(OctSun1+7)=10),OctSun1+7, "")</f>
         <v>41917</v>
@@ -1604,7 +1613,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1613,7 +1622,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(OctSun1+14)=CalendarYear,MONTH(OctSun1+14)=10),OctSun1+14, "")</f>
         <v>41924</v>
@@ -1643,7 +1652,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1652,7 +1661,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(OctSun1+21)=CalendarYear,MONTH(OctSun1+21)=10),OctSun1+21, "")</f>
         <v>41931</v>
@@ -1682,7 +1691,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1691,7 +1700,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(OctSun1+28)=CalendarYear,MONTH(OctSun1+28)=10),OctSun1+28, "")</f>
         <v>41938</v>
@@ -1721,7 +1730,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1730,7 +1739,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(OctSun1+35)=CalendarYear,MONTH(OctSun1+35)=10),OctSun1+35, "")</f>
         <v/>
@@ -1739,22 +1748,22 @@
         <f>IF(AND(YEAR(OctSun1+36)=CalendarYear,MONTH(OctSun1+36)=10),OctSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1775,7 +1784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1785,24 +1794,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,11,1)</f>
         <v>41944</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -1827,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(NovSun1)=CalendarYear,MONTH(NovSun1)=11),NovSun1, "")</f>
         <v/>
@@ -1857,7 +1866,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1866,7 +1875,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(NovSun1+7)=CalendarYear,MONTH(NovSun1+7)=11),NovSun1+7, "")</f>
         <v>41945</v>
@@ -1896,7 +1905,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1905,7 +1914,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(NovSun1+14)=CalendarYear,MONTH(NovSun1+14)=11),NovSun1+14, "")</f>
         <v>41952</v>
@@ -1935,7 +1944,7 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1944,7 +1953,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(NovSun1+21)=CalendarYear,MONTH(NovSun1+21)=11),NovSun1+21, "")</f>
         <v>41959</v>
@@ -1974,7 +1983,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1983,7 +1992,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(NovSun1+28)=CalendarYear,MONTH(NovSun1+28)=11),NovSun1+28, "")</f>
         <v>41966</v>
@@ -2013,7 +2022,7 @@
         <v>41972</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2022,28 +2031,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(NovSun1+35)=CalendarYear,MONTH(NovSun1+35)=11),NovSun1+35, "")</f>
         <v>41973</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2064,34 +2073,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,12,1)</f>
         <v>41974</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -2116,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
         <v/>
@@ -2146,7 +2155,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="9" customFormat="1" ht="47.1" customHeight="1">
+    <row r="4" spans="2:8" s="9" customFormat="1" ht="47" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2157,7 +2166,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="5" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -2168,7 +2177,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B6" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
         <v>41980</v>
@@ -2198,29 +2207,33 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="9" customFormat="1" ht="66.95" customHeight="1">
+    <row r="7" spans="2:8" s="9" customFormat="1" ht="67" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B9" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
         <v>41987</v>
@@ -2250,7 +2263,7 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2259,7 +2272,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
         <v>41994</v>
@@ -2289,7 +2302,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2298,7 +2311,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
         <v>42001</v>
@@ -2328,7 +2341,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="14" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -2337,7 +2350,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="15" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
       <c r="B15" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
         <v/>
@@ -2346,22 +2359,22 @@
         <f>IF(AND(YEAR(DecSun1+36)=CalendarYear,MONTH(DecSun1+36)=12),DecSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1" thickBot="1">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2382,92 +2395,92 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="14">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="9">
         <v>2010</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="14">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="14">
       <c r="A4" s="9">
         <v>2012</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="14">
       <c r="A5" s="9">
         <v>2013</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" ht="14">
       <c r="A6" s="9">
         <v>2014</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
+    <row r="7" spans="1:3" ht="14">
       <c r="A7" s="9">
         <v>2015</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
+    <row r="8" spans="1:3" ht="14">
       <c r="A8" s="31">
         <v>2016</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5">
+    <row r="9" spans="1:3" ht="14">
       <c r="A9" s="31">
         <v>2017</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
+    <row r="10" spans="1:3" ht="14">
       <c r="A10" s="31"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5">
+    <row r="11" spans="1:3" ht="14">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="16.5">
+    <row r="12" spans="1:3" ht="14">
       <c r="B12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2478,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2488,24 +2501,24 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,2,1)</f>
         <v>41671</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -2530,7 +2543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(FebSun1)=CalendarYear,MONTH(FebSun1)=2),FebSun1, "")</f>
         <v/>
@@ -2560,7 +2573,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2569,7 +2582,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(FebSun1+7)=CalendarYear,MONTH(FebSun1+7)=2),FebSun1+7, "")</f>
         <v>41672</v>
@@ -2599,7 +2612,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2608,7 +2621,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(FebSun1+14)=CalendarYear,MONTH(FebSun1+14)=2),FebSun1+14, "")</f>
         <v>41679</v>
@@ -2638,7 +2651,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2647,7 +2660,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(FebSun1+21)=CalendarYear,MONTH(FebSun1+21)=2),FebSun1+21, "")</f>
         <v>41686</v>
@@ -2677,7 +2690,7 @@
         <v>41692</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2686,7 +2699,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(FebSun1+28)=CalendarYear,MONTH(FebSun1+28)=2),FebSun1+28, "")</f>
         <v>41693</v>
@@ -2716,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2725,25 +2738,25 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
+      <c r="B13" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+      <c r="B14" s="39"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2764,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2774,24 +2787,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,3,1)</f>
         <v>41699</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -2816,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MarSun1)=CalendarYear,MONTH(MarSun1)=3),MarSun1, "")</f>
         <v/>
@@ -2846,7 +2859,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2855,7 +2868,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MarSun1+7)=CalendarYear,MONTH(MarSun1+7)=3),MarSun1+7, "")</f>
         <v>41700</v>
@@ -2885,7 +2898,7 @@
         <v>41706</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2894,7 +2907,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MarSun1+14)=CalendarYear,MONTH(MarSun1+14)=3),MarSun1+14, "")</f>
         <v>41707</v>
@@ -2924,7 +2937,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2933,7 +2946,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MarSun1+21)=CalendarYear,MONTH(MarSun1+21)=3),MarSun1+21, "")</f>
         <v>41714</v>
@@ -2963,7 +2976,7 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2972,7 +2985,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MarSun1+28)=CalendarYear,MONTH(MarSun1+28)=3),MarSun1+28, "")</f>
         <v>41721</v>
@@ -3002,7 +3015,7 @@
         <v>41727</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3011,7 +3024,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(MarSun1+35)=CalendarYear,MONTH(MarSun1+35)=3),MarSun1+35, "")</f>
         <v>41728</v>
@@ -3020,22 +3033,22 @@
         <f>IF(AND(YEAR(MarSun1+36)=CalendarYear,MONTH(MarSun1+36)=3),MarSun1+36, "")</f>
         <v>41729</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3056,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3066,24 +3079,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,4,1)</f>
         <v>41730</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3108,7 +3121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AprSun1)=CalendarYear,MONTH(AprSun1)=4),AprSun1, "")</f>
         <v/>
@@ -3138,7 +3151,7 @@
         <v>41734</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3147,7 +3160,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AprSun1+7)=CalendarYear,MONTH(AprSun1+7)=4),AprSun1+7, "")</f>
         <v>41735</v>
@@ -3177,7 +3190,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3186,7 +3199,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AprSun1+14)=CalendarYear,MONTH(AprSun1+14)=4),AprSun1+14, "")</f>
         <v>41742</v>
@@ -3216,7 +3229,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3225,7 +3238,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AprSun1+21)=CalendarYear,MONTH(AprSun1+21)=4),AprSun1+21, "")</f>
         <v>41749</v>
@@ -3255,7 +3268,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3264,7 +3277,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AprSun1+28)=CalendarYear,MONTH(AprSun1+28)=4),AprSun1+28, "")</f>
         <v>41756</v>
@@ -3294,7 +3307,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3303,28 +3316,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(AprSun1+35)=CalendarYear,MONTH(AprSun1+35)=4),AprSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3345,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3355,24 +3368,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,5,1)</f>
         <v>41760</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3397,7 +3410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MaySun1)=CalendarYear,MONTH(MaySun1)=5),MaySun1, "")</f>
         <v/>
@@ -3427,7 +3440,7 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3436,7 +3449,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MaySun1+7)=CalendarYear,MONTH(MaySun1+7)=5),MaySun1+7, "")</f>
         <v>41763</v>
@@ -3466,7 +3479,7 @@
         <v>41769</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3475,7 +3488,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MaySun1+14)=CalendarYear,MONTH(MaySun1+14)=5),MaySun1+14, "")</f>
         <v>41770</v>
@@ -3505,7 +3518,7 @@
         <v>41776</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3514,7 +3527,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MaySun1+21)=CalendarYear,MONTH(MaySun1+21)=5),MaySun1+21, "")</f>
         <v>41777</v>
@@ -3544,7 +3557,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="28"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3553,7 +3566,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MaySun1+28)=CalendarYear,MONTH(MaySun1+28)=5),MaySun1+28, "")</f>
         <v>41784</v>
@@ -3583,7 +3596,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3592,7 +3605,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(MaySun1+35)=CalendarYear,MONTH(MaySun1+35)=5),MaySun1+35, "")</f>
         <v/>
@@ -3601,22 +3614,22 @@
         <f>IF(AND(YEAR(MaySun1+36)=CalendarYear,MONTH(MaySun1+36)=5),MaySun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3637,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3647,24 +3660,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,6,1)</f>
         <v>41791</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -3689,7 +3702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(JunSun1)=CalendarYear,MONTH(JunSun1)=6),JunSun1, "")</f>
         <v>41791</v>
@@ -3719,7 +3732,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3728,7 +3741,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JunSun1+7)=CalendarYear,MONTH(JunSun1+7)=6),JunSun1+7, "")</f>
         <v>41798</v>
@@ -3758,7 +3771,7 @@
         <v>41804</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3767,7 +3780,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JunSun1+14)=CalendarYear,MONTH(JunSun1+14)=6),JunSun1+14, "")</f>
         <v>41805</v>
@@ -3797,7 +3810,7 @@
         <v>41811</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3806,7 +3819,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JunSun1+21)=CalendarYear,MONTH(JunSun1+21)=6),JunSun1+21, "")</f>
         <v>41812</v>
@@ -3836,7 +3849,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3845,7 +3858,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JunSun1+28)=CalendarYear,MONTH(JunSun1+28)=6),JunSun1+28, "")</f>
         <v>41819</v>
@@ -3875,7 +3888,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3884,28 +3897,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JunSun1+35)=CalendarYear,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3926,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3936,24 +3949,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,7,1)</f>
         <v>41821</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3978,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JulSun1)=CalendarYear,MONTH(JulSun1)=7),JulSun1, "")</f>
         <v/>
@@ -4008,7 +4021,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4017,7 +4030,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JulSun1+7)=CalendarYear,MONTH(JulSun1+7)=7),JulSun1+7, "")</f>
         <v>41826</v>
@@ -4047,7 +4060,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4056,7 +4069,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JulSun1+14)=CalendarYear,MONTH(JulSun1+14)=7),JulSun1+14, "")</f>
         <v>41833</v>
@@ -4086,7 +4099,7 @@
         <v>41839</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4095,7 +4108,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JulSun1+21)=CalendarYear,MONTH(JulSun1+21)=7),JulSun1+21, "")</f>
         <v>41840</v>
@@ -4125,7 +4138,7 @@
         <v>41846</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4134,7 +4147,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JulSun1+28)=CalendarYear,MONTH(JulSun1+28)=7),JulSun1+28, "")</f>
         <v>41847</v>
@@ -4164,7 +4177,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4173,7 +4186,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(JulSun1+35)=CalendarYear,MONTH(JulSun1+35)=7),JulSun1+35, "")</f>
         <v/>
@@ -4182,22 +4195,22 @@
         <f>IF(AND(YEAR(JulSun1+36)=CalendarYear,MONTH(JulSun1+36)=7),JulSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4218,7 +4231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4228,24 +4241,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,8,1)</f>
         <v>41852</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4270,7 +4283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AugSun1)=CalendarYear,MONTH(AugSun1)=8),AugSun1, "")</f>
         <v/>
@@ -4300,7 +4313,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4309,7 +4322,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AugSun1+7)=CalendarYear,MONTH(AugSun1+7)=8),AugSun1+7, "")</f>
         <v>41854</v>
@@ -4339,7 +4352,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4348,7 +4361,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AugSun1+14)=CalendarYear,MONTH(AugSun1+14)=8),AugSun1+14, "")</f>
         <v>41861</v>
@@ -4378,7 +4391,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4387,7 +4400,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AugSun1+21)=CalendarYear,MONTH(AugSun1+21)=8),AugSun1+21, "")</f>
         <v>41868</v>
@@ -4417,7 +4430,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4426,7 +4439,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AugSun1+28)=CalendarYear,MONTH(AugSun1+28)=8),AugSun1+28, "")</f>
         <v>41875</v>
@@ -4456,7 +4469,7 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4465,7 +4478,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(AugSun1+35)=CalendarYear,MONTH(AugSun1+35)=8),AugSun1+35, "")</f>
         <v>41882</v>
@@ -4474,22 +4487,22 @@
         <f>IF(AND(YEAR(AugSun1+36)=CalendarYear,MONTH(AugSun1+36)=8),AugSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4510,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4520,24 +4533,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <f>DATE(CalendarYear,9,1)</f>
         <v>41883</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4562,7 +4575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(SepSun1)=CalendarYear,MONTH(SepSun1)=9),SepSun1, "")</f>
         <v/>
@@ -4592,7 +4605,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4601,7 +4614,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(SepSun1+7)=CalendarYear,MONTH(SepSun1+7)=9),SepSun1+7, "")</f>
         <v>41889</v>
@@ -4631,7 +4644,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4640,7 +4653,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(SepSun1+14)=CalendarYear,MONTH(SepSun1+14)=9),SepSun1+14, "")</f>
         <v>41896</v>
@@ -4670,7 +4683,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4679,7 +4692,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(SepSun1+21)=CalendarYear,MONTH(SepSun1+21)=9),SepSun1+21, "")</f>
         <v>41903</v>
@@ -4709,7 +4722,7 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4718,7 +4731,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(SepSun1+28)=CalendarYear,MONTH(SepSun1+28)=9),SepSun1+28, "")</f>
         <v>41910</v>
@@ -4748,7 +4761,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4757,28 +4770,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(SepSun1+35)=CalendarYear,MONTH(SepSun1+35)=9),SepSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="20">
   <si>
     <t>选择
 年份：</t>
@@ -176,6 +176,15 @@
   <si>
     <t>1.找到解决系数相乘的方法（敢序列的长度与系数相乘）
 2.与TSP的区别是TSP要求遍历每一个城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.研究减运算
+2.设置变色龙默认启动mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2089,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2216,7 +2225,9 @@
       <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
@@ -2229,7 +2240,9 @@
       <c r="E8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>

--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="20" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="2700" yWindow="15" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="14" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="SepSun1">DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1))+1</definedName>
     <definedName name="Year">YearLookup[]</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
   <si>
     <t>选择
 年份：</t>
@@ -187,15 +187,51 @@
     <t>KTV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>整理文献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Hei"/>
+        <family val="1"/>
+      </rPr>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神经网络</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -674,7 +710,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -792,15 +828,18 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 1" xfId="3" builtinId="31" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="4" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -938,7 +977,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="564B3C"/>
@@ -1189,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1199,14 +1238,14 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="9"/>
-    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="9"/>
+    <col min="10" max="10" width="15.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1250,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14" customHeight="1">
+    <row r="3" spans="2:11" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JanSun1)=CalendarYear,MONTH(JanSun1)=1),JanSun1, "")</f>
         <v/>
@@ -1280,7 +1319,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="58" customHeight="1">
+    <row r="4" spans="2:11" ht="57.95" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1330,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:11" ht="14" customHeight="1">
+    <row r="5" spans="2:11" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JanSun1+7)=CalendarYear,MONTH(JanSun1+7)=1),JanSun1+7, "")</f>
         <v>41644</v>
@@ -1321,7 +1360,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="58" customHeight="1">
+    <row r="6" spans="2:11" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1330,7 +1369,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="14" customHeight="1">
+    <row r="7" spans="2:11" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JanSun1+14)=CalendarYear,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
         <v>41651</v>
@@ -1360,7 +1399,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="58" customHeight="1">
+    <row r="8" spans="2:11" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1369,7 +1408,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="14" customHeight="1">
+    <row r="9" spans="2:11" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JanSun1+21)=CalendarYear,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
         <v>41658</v>
@@ -1399,7 +1438,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="58" customHeight="1">
+    <row r="10" spans="2:11" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1408,7 +1447,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="14" customHeight="1">
+    <row r="11" spans="2:11" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JanSun1+28)=CalendarYear,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
         <v>41665</v>
@@ -1438,7 +1477,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="58" customHeight="1">
+    <row r="12" spans="2:11" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1447,7 +1486,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="14" customHeight="1">
+    <row r="13" spans="2:11" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JanSun1+35)=CalendarYear,MONTH(JanSun1+35)=1),JanSun1+35, "")</f>
         <v/>
@@ -1464,7 +1503,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:11" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="34"/>
@@ -1501,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1511,11 +1550,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1553,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(OctSun1)=CalendarYear,MONTH(OctSun1)=10),OctSun1, "")</f>
         <v/>
@@ -1583,7 +1622,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1592,7 +1631,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(OctSun1+7)=CalendarYear,MONTH(OctSun1+7)=10),OctSun1+7, "")</f>
         <v>41917</v>
@@ -1622,7 +1661,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1631,7 +1670,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(OctSun1+14)=CalendarYear,MONTH(OctSun1+14)=10),OctSun1+14, "")</f>
         <v>41924</v>
@@ -1661,7 +1700,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1670,7 +1709,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(OctSun1+21)=CalendarYear,MONTH(OctSun1+21)=10),OctSun1+21, "")</f>
         <v>41931</v>
@@ -1700,7 +1739,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1709,7 +1748,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(OctSun1+28)=CalendarYear,MONTH(OctSun1+28)=10),OctSun1+28, "")</f>
         <v>41938</v>
@@ -1739,7 +1778,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1748,7 +1787,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(OctSun1+35)=CalendarYear,MONTH(OctSun1+35)=10),OctSun1+35, "")</f>
         <v/>
@@ -1765,7 +1804,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="34"/>
@@ -1793,7 +1832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1803,11 +1842,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -1845,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(NovSun1)=CalendarYear,MONTH(NovSun1)=11),NovSun1, "")</f>
         <v/>
@@ -1875,7 +1914,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1884,7 +1923,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(NovSun1+7)=CalendarYear,MONTH(NovSun1+7)=11),NovSun1+7, "")</f>
         <v>41945</v>
@@ -1914,7 +1953,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1923,7 +1962,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(NovSun1+14)=CalendarYear,MONTH(NovSun1+14)=11),NovSun1+14, "")</f>
         <v>41952</v>
@@ -1953,7 +1992,7 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1962,7 +2001,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(NovSun1+21)=CalendarYear,MONTH(NovSun1+21)=11),NovSun1+21, "")</f>
         <v>41959</v>
@@ -1992,7 +2031,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2001,7 +2040,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(NovSun1+28)=CalendarYear,MONTH(NovSun1+28)=11),NovSun1+28, "")</f>
         <v>41966</v>
@@ -2031,7 +2070,7 @@
         <v>41972</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2040,7 +2079,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(NovSun1+35)=CalendarYear,MONTH(NovSun1+35)=11),NovSun1+35, "")</f>
         <v>41973</v>
@@ -2054,7 +2093,7 @@
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -2082,21 +2121,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2134,7 +2173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="3" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
         <v/>
@@ -2164,7 +2203,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="9" customFormat="1" ht="47" customHeight="1">
+    <row r="4" spans="2:8" s="9" customFormat="1" ht="47.1" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2175,7 +2214,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="5" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -2186,7 +2225,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B6" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
         <v>41980</v>
@@ -2216,7 +2255,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="9" customFormat="1" ht="67" customHeight="1">
+    <row r="7" spans="2:8" s="9" customFormat="1" ht="66.95" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -2231,7 +2270,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="32" t="s">
@@ -2246,7 +2285,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="9" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B9" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
         <v>41987</v>
@@ -2276,16 +2315,18 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="10" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="43" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="11" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
         <v>41994</v>
@@ -2315,16 +2356,18 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="12" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="13" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
         <v>42001</v>
@@ -2354,7 +2397,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1">
+    <row r="14" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -2363,7 +2406,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="2:8" s="9" customFormat="1" ht="14" customHeight="1">
+    <row r="15" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
       <c r="B15" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
         <v/>
@@ -2380,7 +2423,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="2:8" s="9" customFormat="1" ht="58" customHeight="1" thickBot="1">
+    <row r="16" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1" thickBot="1">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="34"/>
@@ -2408,92 +2451,92 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="9">
         <v>2010</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="14">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="14">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="9">
         <v>2012</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="14">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="9">
         <v>2013</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="14">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="9">
         <v>2014</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="14">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="9">
         <v>2015</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="14">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="31">
         <v>2016</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="14">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="31">
         <v>2017</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="14">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="31"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="14">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="14">
+    <row r="12" spans="1:3" ht="16.5">
       <c r="B12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2504,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2514,11 +2557,11 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2556,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(FebSun1)=CalendarYear,MONTH(FebSun1)=2),FebSun1, "")</f>
         <v/>
@@ -2586,7 +2629,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2595,7 +2638,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(FebSun1+7)=CalendarYear,MONTH(FebSun1+7)=2),FebSun1+7, "")</f>
         <v>41672</v>
@@ -2625,7 +2668,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2634,7 +2677,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(FebSun1+14)=CalendarYear,MONTH(FebSun1+14)=2),FebSun1+14, "")</f>
         <v>41679</v>
@@ -2664,7 +2707,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2673,7 +2716,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(FebSun1+21)=CalendarYear,MONTH(FebSun1+21)=2),FebSun1+21, "")</f>
         <v>41686</v>
@@ -2703,7 +2746,7 @@
         <v>41692</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2712,7 +2755,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(FebSun1+28)=CalendarYear,MONTH(FebSun1+28)=2),FebSun1+28, "")</f>
         <v>41693</v>
@@ -2742,7 +2785,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2751,7 +2794,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="40" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2805,7 @@
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="39"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -2790,7 +2833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2800,11 +2843,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -2842,7 +2885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MarSun1)=CalendarYear,MONTH(MarSun1)=3),MarSun1, "")</f>
         <v/>
@@ -2872,7 +2915,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2881,7 +2924,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MarSun1+7)=CalendarYear,MONTH(MarSun1+7)=3),MarSun1+7, "")</f>
         <v>41700</v>
@@ -2911,7 +2954,7 @@
         <v>41706</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2920,7 +2963,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MarSun1+14)=CalendarYear,MONTH(MarSun1+14)=3),MarSun1+14, "")</f>
         <v>41707</v>
@@ -2950,7 +2993,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2959,7 +3002,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MarSun1+21)=CalendarYear,MONTH(MarSun1+21)=3),MarSun1+21, "")</f>
         <v>41714</v>
@@ -2989,7 +3032,7 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2998,7 +3041,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MarSun1+28)=CalendarYear,MONTH(MarSun1+28)=3),MarSun1+28, "")</f>
         <v>41721</v>
@@ -3028,7 +3071,7 @@
         <v>41727</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3037,7 +3080,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(MarSun1+35)=CalendarYear,MONTH(MarSun1+35)=3),MarSun1+35, "")</f>
         <v>41728</v>
@@ -3054,7 +3097,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="34"/>
@@ -3082,7 +3125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3092,11 +3135,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3134,7 +3177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AprSun1)=CalendarYear,MONTH(AprSun1)=4),AprSun1, "")</f>
         <v/>
@@ -3164,7 +3207,7 @@
         <v>41734</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3173,7 +3216,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AprSun1+7)=CalendarYear,MONTH(AprSun1+7)=4),AprSun1+7, "")</f>
         <v>41735</v>
@@ -3203,7 +3246,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3212,7 +3255,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AprSun1+14)=CalendarYear,MONTH(AprSun1+14)=4),AprSun1+14, "")</f>
         <v>41742</v>
@@ -3242,7 +3285,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3251,7 +3294,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AprSun1+21)=CalendarYear,MONTH(AprSun1+21)=4),AprSun1+21, "")</f>
         <v>41749</v>
@@ -3281,7 +3324,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3290,7 +3333,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AprSun1+28)=CalendarYear,MONTH(AprSun1+28)=4),AprSun1+28, "")</f>
         <v>41756</v>
@@ -3320,7 +3363,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3329,7 +3372,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(AprSun1+35)=CalendarYear,MONTH(AprSun1+35)=4),AprSun1+35, "")</f>
         <v/>
@@ -3343,7 +3386,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -3371,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3381,11 +3424,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3423,7 +3466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MaySun1)=CalendarYear,MONTH(MaySun1)=5),MaySun1, "")</f>
         <v/>
@@ -3453,7 +3496,7 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3462,7 +3505,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MaySun1+7)=CalendarYear,MONTH(MaySun1+7)=5),MaySun1+7, "")</f>
         <v>41763</v>
@@ -3492,7 +3535,7 @@
         <v>41769</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3501,7 +3544,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MaySun1+14)=CalendarYear,MONTH(MaySun1+14)=5),MaySun1+14, "")</f>
         <v>41770</v>
@@ -3531,7 +3574,7 @@
         <v>41776</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3540,7 +3583,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MaySun1+21)=CalendarYear,MONTH(MaySun1+21)=5),MaySun1+21, "")</f>
         <v>41777</v>
@@ -3570,7 +3613,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="28"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3579,7 +3622,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MaySun1+28)=CalendarYear,MONTH(MaySun1+28)=5),MaySun1+28, "")</f>
         <v>41784</v>
@@ -3609,7 +3652,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3618,7 +3661,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(MaySun1+35)=CalendarYear,MONTH(MaySun1+35)=5),MaySun1+35, "")</f>
         <v/>
@@ -3635,7 +3678,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="34"/>
@@ -3663,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3673,11 +3716,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -3715,7 +3758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(JunSun1)=CalendarYear,MONTH(JunSun1)=6),JunSun1, "")</f>
         <v>41791</v>
@@ -3745,7 +3788,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3754,7 +3797,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JunSun1+7)=CalendarYear,MONTH(JunSun1+7)=6),JunSun1+7, "")</f>
         <v>41798</v>
@@ -3784,7 +3827,7 @@
         <v>41804</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3793,7 +3836,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JunSun1+14)=CalendarYear,MONTH(JunSun1+14)=6),JunSun1+14, "")</f>
         <v>41805</v>
@@ -3823,7 +3866,7 @@
         <v>41811</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3832,7 +3875,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JunSun1+21)=CalendarYear,MONTH(JunSun1+21)=6),JunSun1+21, "")</f>
         <v>41812</v>
@@ -3862,7 +3905,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3871,7 +3914,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JunSun1+28)=CalendarYear,MONTH(JunSun1+28)=6),JunSun1+28, "")</f>
         <v>41819</v>
@@ -3901,7 +3944,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3910,7 +3953,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JunSun1+35)=CalendarYear,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
         <v/>
@@ -3924,7 +3967,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -3952,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3962,11 +4005,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4004,7 +4047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JulSun1)=CalendarYear,MONTH(JulSun1)=7),JulSun1, "")</f>
         <v/>
@@ -4034,7 +4077,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4043,7 +4086,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JulSun1+7)=CalendarYear,MONTH(JulSun1+7)=7),JulSun1+7, "")</f>
         <v>41826</v>
@@ -4073,7 +4116,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4082,7 +4125,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JulSun1+14)=CalendarYear,MONTH(JulSun1+14)=7),JulSun1+14, "")</f>
         <v>41833</v>
@@ -4112,7 +4155,7 @@
         <v>41839</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4121,7 +4164,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JulSun1+21)=CalendarYear,MONTH(JulSun1+21)=7),JulSun1+21, "")</f>
         <v>41840</v>
@@ -4151,7 +4194,7 @@
         <v>41846</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4160,7 +4203,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JulSun1+28)=CalendarYear,MONTH(JulSun1+28)=7),JulSun1+28, "")</f>
         <v>41847</v>
@@ -4190,7 +4233,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4199,7 +4242,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(JulSun1+35)=CalendarYear,MONTH(JulSun1+35)=7),JulSun1+35, "")</f>
         <v/>
@@ -4216,7 +4259,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="34"/>
@@ -4244,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4254,11 +4297,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4296,7 +4339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AugSun1)=CalendarYear,MONTH(AugSun1)=8),AugSun1, "")</f>
         <v/>
@@ -4326,7 +4369,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4335,7 +4378,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AugSun1+7)=CalendarYear,MONTH(AugSun1+7)=8),AugSun1+7, "")</f>
         <v>41854</v>
@@ -4365,7 +4408,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4374,7 +4417,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AugSun1+14)=CalendarYear,MONTH(AugSun1+14)=8),AugSun1+14, "")</f>
         <v>41861</v>
@@ -4404,7 +4447,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4413,7 +4456,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AugSun1+21)=CalendarYear,MONTH(AugSun1+21)=8),AugSun1+21, "")</f>
         <v>41868</v>
@@ -4443,7 +4486,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4452,7 +4495,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AugSun1+28)=CalendarYear,MONTH(AugSun1+28)=8),AugSun1+28, "")</f>
         <v>41875</v>
@@ -4482,7 +4525,7 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4491,7 +4534,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(AugSun1+35)=CalendarYear,MONTH(AugSun1+35)=8),AugSun1+35, "")</f>
         <v>41882</v>
@@ -4508,7 +4551,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="34"/>
@@ -4536,7 +4579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4546,11 +4589,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
@@ -4588,7 +4631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(SepSun1)=CalendarYear,MONTH(SepSun1)=9),SepSun1, "")</f>
         <v/>
@@ -4618,7 +4661,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="58" customHeight="1">
+    <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4627,7 +4670,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14" customHeight="1">
+    <row r="5" spans="2:8" ht="14.1" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(SepSun1+7)=CalendarYear,MONTH(SepSun1+7)=9),SepSun1+7, "")</f>
         <v>41889</v>
@@ -4657,7 +4700,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58" customHeight="1">
+    <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4666,7 +4709,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14" customHeight="1">
+    <row r="7" spans="2:8" ht="14.1" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(SepSun1+14)=CalendarYear,MONTH(SepSun1+14)=9),SepSun1+14, "")</f>
         <v>41896</v>
@@ -4696,7 +4739,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58" customHeight="1">
+    <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4705,7 +4748,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14" customHeight="1">
+    <row r="9" spans="2:8" ht="14.1" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(SepSun1+21)=CalendarYear,MONTH(SepSun1+21)=9),SepSun1+21, "")</f>
         <v>41903</v>
@@ -4735,7 +4778,7 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="58" customHeight="1">
+    <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4744,7 +4787,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14" customHeight="1">
+    <row r="11" spans="2:8" ht="14.1" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(SepSun1+28)=CalendarYear,MONTH(SepSun1+28)=9),SepSun1+28, "")</f>
         <v>41910</v>
@@ -4774,7 +4817,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58" customHeight="1">
+    <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4783,7 +4826,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14" customHeight="1">
+    <row r="13" spans="2:8" ht="14.1" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(SepSun1+35)=CalendarYear,MONTH(SepSun1+35)=9),SepSun1+35, "")</f>
         <v/>
@@ -4797,7 +4840,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="38"/>
     </row>
-    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>

--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
   <si>
     <t>选择
 年份：</t>
@@ -223,6 +223,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>调试代码，收敛速度慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成代码整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究初始权值与收敛的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -359,6 +375,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -710,7 +739,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,6 +827,9 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="57" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,7 +860,13 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1249,16 +1287,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1495,22 +1533,22 @@
         <f>IF(AND(YEAR(JanSun1+36)=CalendarYear,MONTH(JanSun1+36)=1),JanSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:11" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1558,16 +1596,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,10,1)</f>
         <v>41913</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -1796,22 +1834,22 @@
         <f>IF(AND(YEAR(OctSun1+36)=CalendarYear,MONTH(OctSun1+36)=10),OctSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1850,16 +1888,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,11,1)</f>
         <v>41944</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -2084,23 +2122,23 @@
         <f>IF(AND(YEAR(NovSun1+35)=CalendarYear,MONTH(NovSun1+35)=11),NovSun1+35, "")</f>
         <v>41973</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2125,10 +2163,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2138,19 +2176,20 @@
     <col min="9" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,12,1)</f>
         <v>41974</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:8" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A2" s="9"/>
       <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
@@ -2173,7 +2212,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="3" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A3" s="9"/>
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
         <v/>
@@ -2203,7 +2243,8 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="9" customFormat="1" ht="47.1" customHeight="1">
+    <row r="4" spans="1:8" ht="47.1" customHeight="1">
+      <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2214,7 +2255,8 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="5" spans="1:8" ht="57.95" customHeight="1">
+      <c r="A5" s="9"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -2225,7 +2267,8 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="6" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A6" s="9"/>
       <c r="B6" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
         <v>41980</v>
@@ -2255,7 +2298,8 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="9" customFormat="1" ht="66.95" customHeight="1">
+    <row r="7" spans="1:8" ht="66.95" customHeight="1">
+      <c r="A7" s="9"/>
       <c r="B7" s="17"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
@@ -2270,7 +2314,8 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
+    <row r="8" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A8" s="9"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="32" t="s">
@@ -2285,7 +2330,8 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
+    <row r="9" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A9" s="9"/>
       <c r="B9" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
         <v>41987</v>
@@ -2315,128 +2361,171 @@
         <v>41993</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="43" t="s">
+    <row r="10" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B11" s="18">
+      <c r="D10" s="11"/>
+      <c r="E10" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="57.95" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
         <v>41994</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C12" s="19">
         <f>IF(AND(YEAR(DecSun1+22)=CalendarYear,MONTH(DecSun1+22)=12),DecSun1+22, "")</f>
         <v>41995</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <f>IF(AND(YEAR(DecSun1+23)=CalendarYear,MONTH(DecSun1+23)=12),DecSun1+23, "")</f>
         <v>41996</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="19">
         <f>IF(AND(YEAR(DecSun1+24)=CalendarYear,MONTH(DecSun1+24)=12),DecSun1+24, "")</f>
         <v>41997</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="19">
         <f>IF(AND(YEAR(DecSun1+25)=CalendarYear,MONTH(DecSun1+25)=12),DecSun1+25, "")</f>
         <v>41998</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G12" s="19">
         <f>IF(AND(YEAR(DecSun1+26)=CalendarYear,MONTH(DecSun1+26)=12),DecSun1+26, "")</f>
         <v>41999</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H12" s="20">
         <f>IF(AND(YEAR(DecSun1+27)=CalendarYear,MONTH(DecSun1+27)=12),DecSun1+27, "")</f>
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B13" s="18">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="57.95" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
         <v>42001</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C15" s="19">
         <f>IF(AND(YEAR(DecSun1+29)=CalendarYear,MONTH(DecSun1+29)=12),DecSun1+29, "")</f>
         <v>42002</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D15" s="19">
         <f>IF(AND(YEAR(DecSun1+30)=CalendarYear,MONTH(DecSun1+30)=12),DecSun1+30, "")</f>
         <v>42003</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E15" s="19">
         <f>IF(AND(YEAR(DecSun1+31)=CalendarYear,MONTH(DecSun1+31)=12),DecSun1+31, "")</f>
         <v>42004</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F15" s="19" t="str">
         <f>IF(AND(YEAR(DecSun1+32)=CalendarYear,MONTH(DecSun1+32)=12),DecSun1+32, "")</f>
         <v/>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G15" s="19" t="str">
         <f>IF(AND(YEAR(DecSun1+33)=CalendarYear,MONTH(DecSun1+33)=12),DecSun1+33, "")</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H15" s="20" t="str">
         <f>IF(AND(YEAR(DecSun1+34)=CalendarYear,MONTH(DecSun1+34)=12),DecSun1+34, "")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:8" s="9" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B15" s="29" t="str">
+    <row r="16" spans="1:8" ht="63.75" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="57.95" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.1" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C18" s="30" t="str">
         <f>IF(AND(YEAR(DecSun1+36)=CalendarYear,MONTH(DecSun1+36)=12),DecSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="2:8" s="9" customFormat="1" ht="57.95" customHeight="1" thickBot="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2565,16 +2654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,2,1)</f>
         <v>41671</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -2795,24 +2884,24 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:8" ht="14.1" customHeight="1">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2851,16 +2940,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,3,1)</f>
         <v>41699</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -3089,22 +3178,22 @@
         <f>IF(AND(YEAR(MarSun1+36)=CalendarYear,MONTH(MarSun1+36)=3),MarSun1+36, "")</f>
         <v>41729</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3143,16 +3232,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,4,1)</f>
         <v>41730</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3377,23 +3466,23 @@
         <f>IF(AND(YEAR(AprSun1+35)=CalendarYear,MONTH(AprSun1+35)=4),AprSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3432,16 +3521,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,5,1)</f>
         <v>41760</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3670,22 +3759,22 @@
         <f>IF(AND(YEAR(MaySun1+36)=CalendarYear,MONTH(MaySun1+36)=5),MaySun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3724,16 +3813,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,6,1)</f>
         <v>41791</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -3958,23 +4047,23 @@
         <f>IF(AND(YEAR(JunSun1+35)=CalendarYear,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4013,16 +4102,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,7,1)</f>
         <v>41821</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4251,22 +4340,22 @@
         <f>IF(AND(YEAR(JulSun1+36)=CalendarYear,MONTH(JulSun1+36)=7),JulSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4305,16 +4394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,8,1)</f>
         <v>41852</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4543,22 +4632,22 @@
         <f>IF(AND(YEAR(AugSun1+36)=CalendarYear,MONTH(AugSun1+36)=8),AugSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4597,16 +4686,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <f>DATE(CalendarYear,9,1)</f>
         <v>41883</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4831,23 +4920,23 @@
         <f>IF(AND(YEAR(SepSun1+35)=CalendarYear,MONTH(SepSun1+35)=9),SepSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Document/学习报表.xlsx
+++ b/Document/学习报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="15" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="2700" yWindow="20" windowWidth="15480" windowHeight="11640" tabRatio="788" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="14" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="SepSun1">DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1))+1</definedName>
     <definedName name="Year">YearLookup[]</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
   <si>
     <t>选择
 年份：</t>
@@ -239,15 +239,19 @@
     <t>整理文献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>提交论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -830,6 +834,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="57" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,24 +873,15 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 1" xfId="3" builtinId="31" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="4" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1015,7 +1019,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="564B3C"/>
@@ -1266,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1276,27 +1280,27 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="9"/>
-    <col min="10" max="10" width="15.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="9"/>
+    <col min="10" max="10" width="15.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.1" customHeight="1">
+    <row r="3" spans="2:11" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JanSun1)=CalendarYear,MONTH(JanSun1)=1),JanSun1, "")</f>
         <v/>
@@ -1357,7 +1361,7 @@
         <v>41643</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="57.95" customHeight="1">
+    <row r="4" spans="2:11" ht="58" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1372,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:11" ht="14.1" customHeight="1">
+    <row r="5" spans="2:11" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JanSun1+7)=CalendarYear,MONTH(JanSun1+7)=1),JanSun1+7, "")</f>
         <v>41644</v>
@@ -1398,7 +1402,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="57.95" customHeight="1">
+    <row r="6" spans="2:11" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1407,7 +1411,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:11" ht="14.1" customHeight="1">
+    <row r="7" spans="2:11" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JanSun1+14)=CalendarYear,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
         <v>41651</v>
@@ -1437,7 +1441,7 @@
         <v>41657</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="57.95" customHeight="1">
+    <row r="8" spans="2:11" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1446,7 +1450,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:11" ht="14.1" customHeight="1">
+    <row r="9" spans="2:11" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JanSun1+21)=CalendarYear,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
         <v>41658</v>
@@ -1476,7 +1480,7 @@
         <v>41664</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="57.95" customHeight="1">
+    <row r="10" spans="2:11" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1485,7 +1489,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:11" ht="14.1" customHeight="1">
+    <row r="11" spans="2:11" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JanSun1+28)=CalendarYear,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
         <v>41665</v>
@@ -1515,7 +1519,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="57.95" customHeight="1">
+    <row r="12" spans="2:11" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1524,7 +1528,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:11" ht="14.1" customHeight="1">
+    <row r="13" spans="2:11" ht="14" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JanSun1+35)=CalendarYear,MONTH(JanSun1+35)=1),JanSun1+35, "")</f>
         <v/>
@@ -1533,22 +1537,22 @@
         <f>IF(AND(YEAR(JanSun1+36)=CalendarYear,MONTH(JanSun1+36)=1),JanSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:11" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:11" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1578,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1588,24 +1592,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,10,1)</f>
         <v>41913</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -1630,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(OctSun1)=CalendarYear,MONTH(OctSun1)=10),OctSun1, "")</f>
         <v/>
@@ -1660,7 +1664,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1669,7 +1673,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(OctSun1+7)=CalendarYear,MONTH(OctSun1+7)=10),OctSun1+7, "")</f>
         <v>41917</v>
@@ -1699,7 +1703,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -1708,7 +1712,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(OctSun1+14)=CalendarYear,MONTH(OctSun1+14)=10),OctSun1+14, "")</f>
         <v>41924</v>
@@ -1738,7 +1742,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -1747,7 +1751,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(OctSun1+21)=CalendarYear,MONTH(OctSun1+21)=10),OctSun1+21, "")</f>
         <v>41931</v>
@@ -1777,7 +1781,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -1786,7 +1790,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(OctSun1+28)=CalendarYear,MONTH(OctSun1+28)=10),OctSun1+28, "")</f>
         <v>41938</v>
@@ -1816,7 +1820,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -1825,7 +1829,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(OctSun1+35)=CalendarYear,MONTH(OctSun1+35)=10),OctSun1+35, "")</f>
         <v/>
@@ -1834,22 +1838,22 @@
         <f>IF(AND(YEAR(OctSun1+36)=CalendarYear,MONTH(OctSun1+36)=10),OctSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1870,7 +1874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1880,24 +1884,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,11,1)</f>
         <v>41944</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -1922,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(NovSun1)=CalendarYear,MONTH(NovSun1)=11),NovSun1, "")</f>
         <v/>
@@ -1952,7 +1956,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -1961,7 +1965,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(NovSun1+7)=CalendarYear,MONTH(NovSun1+7)=11),NovSun1+7, "")</f>
         <v>41945</v>
@@ -1991,7 +1995,7 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2000,7 +2004,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(NovSun1+14)=CalendarYear,MONTH(NovSun1+14)=11),NovSun1+14, "")</f>
         <v>41952</v>
@@ -2030,7 +2034,7 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2039,7 +2043,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(NovSun1+21)=CalendarYear,MONTH(NovSun1+21)=11),NovSun1+21, "")</f>
         <v>41959</v>
@@ -2069,7 +2073,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2078,7 +2082,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(NovSun1+28)=CalendarYear,MONTH(NovSun1+28)=11),NovSun1+28, "")</f>
         <v>41966</v>
@@ -2108,7 +2112,7 @@
         <v>41972</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2117,28 +2121,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(NovSun1+35)=CalendarYear,MONTH(NovSun1+35)=11),NovSun1+35, "")</f>
         <v>41973</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2159,34 +2163,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,12,1)</f>
         <v>41974</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1">
       <c r="A2" s="9"/>
@@ -2212,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1">
+    <row r="3" spans="1:8" ht="14" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(DecSun1)=CalendarYear,MONTH(DecSun1)=12),DecSun1, "")</f>
@@ -2243,7 +2247,7 @@
         <v>41979</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.1" customHeight="1">
+    <row r="4" spans="1:8" ht="47" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -2255,7 +2259,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="57.95" customHeight="1">
+    <row r="5" spans="1:8" ht="58" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -2267,7 +2271,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" ht="14.1" customHeight="1">
+    <row r="6" spans="1:8" ht="14" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="17">
         <f>IF(AND(YEAR(DecSun1+7)=CalendarYear,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
@@ -2298,7 +2302,7 @@
         <v>41986</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="66.95" customHeight="1">
+    <row r="7" spans="1:8" ht="67" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="17"/>
       <c r="C7" s="11"/>
@@ -2330,7 +2334,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1">
+    <row r="9" spans="1:8" ht="14" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="17">
         <f>IF(AND(YEAR(DecSun1+14)=CalendarYear,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
@@ -2368,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="36" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="11"/>
@@ -2377,7 +2381,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="57.95" customHeight="1">
+    <row r="11" spans="1:8" ht="58" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
@@ -2388,12 +2392,12 @@
       <c r="F11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="14.1" customHeight="1">
+    <row r="12" spans="1:8" ht="14" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="18">
         <f>IF(AND(YEAR(DecSun1+21)=CalendarYear,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
@@ -2427,14 +2431,16 @@
     <row r="13" spans="1:8" ht="57.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="44"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="34"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" ht="57.95" customHeight="1">
+    <row r="14" spans="1:8" ht="58" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="13"/>
       <c r="D14" s="15"/>
@@ -2442,7 +2448,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="14.1" customHeight="1">
+    <row r="15" spans="1:8" ht="14" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="18">
         <f>IF(AND(YEAR(DecSun1+28)=CalendarYear,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
@@ -2483,7 +2489,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="57.95" customHeight="1">
+    <row r="17" spans="1:8" ht="58" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -2493,7 +2499,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="14.1" customHeight="1">
+    <row r="18" spans="1:8" ht="14" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="29" t="str">
         <f>IF(AND(YEAR(DecSun1+35)=CalendarYear,MONTH(DecSun1+35)=12),DecSun1+35, "")</f>
@@ -2503,23 +2509,23 @@
         <f>IF(AND(YEAR(DecSun1+36)=CalendarYear,MONTH(DecSun1+36)=12),DecSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="58" customHeight="1" thickBot="1">
       <c r="A19" s="9"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2540,92 +2546,92 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="14">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="9">
         <v>2010</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="14">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="14">
       <c r="A4" s="9">
         <v>2012</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="14">
       <c r="A5" s="9">
         <v>2013</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" ht="14">
       <c r="A6" s="9">
         <v>2014</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
+    <row r="7" spans="1:3" ht="14">
       <c r="A7" s="9">
         <v>2015</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
+    <row r="8" spans="1:3" ht="14">
       <c r="A8" s="31">
         <v>2016</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5">
+    <row r="9" spans="1:3" ht="14">
       <c r="A9" s="31">
         <v>2017</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
+    <row r="10" spans="1:3" ht="14">
       <c r="A10" s="31"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5">
+    <row r="11" spans="1:3" ht="14">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="16.5">
+    <row r="12" spans="1:3" ht="14">
       <c r="B12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2636,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2646,24 +2652,24 @@
       <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,2,1)</f>
         <v>41671</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -2688,7 +2694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(FebSun1)=CalendarYear,MONTH(FebSun1)=2),FebSun1, "")</f>
         <v/>
@@ -2718,7 +2724,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -2727,7 +2733,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(FebSun1+7)=CalendarYear,MONTH(FebSun1+7)=2),FebSun1+7, "")</f>
         <v>41672</v>
@@ -2757,7 +2763,7 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -2766,7 +2772,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(FebSun1+14)=CalendarYear,MONTH(FebSun1+14)=2),FebSun1+14, "")</f>
         <v>41679</v>
@@ -2796,7 +2802,7 @@
         <v>41685</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -2805,7 +2811,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(FebSun1+21)=CalendarYear,MONTH(FebSun1+21)=2),FebSun1+21, "")</f>
         <v>41686</v>
@@ -2835,7 +2841,7 @@
         <v>41692</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2844,7 +2850,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(FebSun1+28)=CalendarYear,MONTH(FebSun1+28)=2),FebSun1+28, "")</f>
         <v>41693</v>
@@ -2874,7 +2880,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -2883,25 +2889,25 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
-      <c r="B13" s="41" t="s">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
+      <c r="B13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
-      <c r="B14" s="40"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
+      <c r="B14" s="43"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2922,7 +2928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2932,24 +2938,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,3,1)</f>
         <v>41699</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -2974,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MarSun1)=CalendarYear,MONTH(MarSun1)=3),MarSun1, "")</f>
         <v/>
@@ -3004,7 +3010,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3013,7 +3019,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MarSun1+7)=CalendarYear,MONTH(MarSun1+7)=3),MarSun1+7, "")</f>
         <v>41700</v>
@@ -3043,7 +3049,7 @@
         <v>41706</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3052,7 +3058,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MarSun1+14)=CalendarYear,MONTH(MarSun1+14)=3),MarSun1+14, "")</f>
         <v>41707</v>
@@ -3082,7 +3088,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3091,7 +3097,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MarSun1+21)=CalendarYear,MONTH(MarSun1+21)=3),MarSun1+21, "")</f>
         <v>41714</v>
@@ -3121,7 +3127,7 @@
         <v>41720</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3130,7 +3136,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MarSun1+28)=CalendarYear,MONTH(MarSun1+28)=3),MarSun1+28, "")</f>
         <v>41721</v>
@@ -3160,7 +3166,7 @@
         <v>41727</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3169,7 +3175,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="18">
         <f>IF(AND(YEAR(MarSun1+35)=CalendarYear,MONTH(MarSun1+35)=3),MarSun1+35, "")</f>
         <v>41728</v>
@@ -3178,22 +3184,22 @@
         <f>IF(AND(YEAR(MarSun1+36)=CalendarYear,MONTH(MarSun1+36)=3),MarSun1+36, "")</f>
         <v>41729</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3214,7 +3220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3224,24 +3230,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,4,1)</f>
         <v>41730</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3266,7 +3272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AprSun1)=CalendarYear,MONTH(AprSun1)=4),AprSun1, "")</f>
         <v/>
@@ -3296,7 +3302,7 @@
         <v>41734</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3305,7 +3311,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AprSun1+7)=CalendarYear,MONTH(AprSun1+7)=4),AprSun1+7, "")</f>
         <v>41735</v>
@@ -3335,7 +3341,7 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3344,7 +3350,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AprSun1+14)=CalendarYear,MONTH(AprSun1+14)=4),AprSun1+14, "")</f>
         <v>41742</v>
@@ -3374,7 +3380,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3383,7 +3389,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AprSun1+21)=CalendarYear,MONTH(AprSun1+21)=4),AprSun1+21, "")</f>
         <v>41749</v>
@@ -3413,7 +3419,7 @@
         <v>41755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3422,7 +3428,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AprSun1+28)=CalendarYear,MONTH(AprSun1+28)=4),AprSun1+28, "")</f>
         <v>41756</v>
@@ -3452,7 +3458,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3461,28 +3467,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(AprSun1+35)=CalendarYear,MONTH(AprSun1+35)=4),AprSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3503,7 +3509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3513,24 +3519,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,5,1)</f>
         <v>41760</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -3555,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(MaySun1)=CalendarYear,MONTH(MaySun1)=5),MaySun1, "")</f>
         <v/>
@@ -3585,7 +3591,7 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3594,7 +3600,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(MaySun1+7)=CalendarYear,MONTH(MaySun1+7)=5),MaySun1+7, "")</f>
         <v>41763</v>
@@ -3624,7 +3630,7 @@
         <v>41769</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3633,7 +3639,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(MaySun1+14)=CalendarYear,MONTH(MaySun1+14)=5),MaySun1+14, "")</f>
         <v>41770</v>
@@ -3663,7 +3669,7 @@
         <v>41776</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3672,7 +3678,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(MaySun1+21)=CalendarYear,MONTH(MaySun1+21)=5),MaySun1+21, "")</f>
         <v>41777</v>
@@ -3702,7 +3708,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="28"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -3711,7 +3717,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(MaySun1+28)=CalendarYear,MONTH(MaySun1+28)=5),MaySun1+28, "")</f>
         <v>41784</v>
@@ -3741,7 +3747,7 @@
         <v>41790</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -3750,7 +3756,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(MaySun1+35)=CalendarYear,MONTH(MaySun1+35)=5),MaySun1+35, "")</f>
         <v/>
@@ -3759,22 +3765,22 @@
         <f>IF(AND(YEAR(MaySun1+36)=CalendarYear,MONTH(MaySun1+36)=5),MaySun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3795,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3805,24 +3811,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,6,1)</f>
         <v>41791</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="6" t="s">
@@ -3847,7 +3853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10">
         <f>IF(AND(YEAR(JunSun1)=CalendarYear,MONTH(JunSun1)=6),JunSun1, "")</f>
         <v>41791</v>
@@ -3877,7 +3883,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3886,7 +3892,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JunSun1+7)=CalendarYear,MONTH(JunSun1+7)=6),JunSun1+7, "")</f>
         <v>41798</v>
@@ -3916,7 +3922,7 @@
         <v>41804</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -3925,7 +3931,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JunSun1+14)=CalendarYear,MONTH(JunSun1+14)=6),JunSun1+14, "")</f>
         <v>41805</v>
@@ -3955,7 +3961,7 @@
         <v>41811</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -3964,7 +3970,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JunSun1+21)=CalendarYear,MONTH(JunSun1+21)=6),JunSun1+21, "")</f>
         <v>41812</v>
@@ -3994,7 +4000,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4003,7 +4009,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JunSun1+28)=CalendarYear,MONTH(JunSun1+28)=6),JunSun1+28, "")</f>
         <v>41819</v>
@@ -4033,7 +4039,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4042,28 +4048,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="18" t="str">
         <f>IF(AND(YEAR(JunSun1+35)=CalendarYear,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4084,7 +4090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4094,24 +4100,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,7,1)</f>
         <v>41821</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4136,7 +4142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(JulSun1)=CalendarYear,MONTH(JulSun1)=7),JulSun1, "")</f>
         <v/>
@@ -4166,7 +4172,7 @@
         <v>41825</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4175,7 +4181,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(JulSun1+7)=CalendarYear,MONTH(JulSun1+7)=7),JulSun1+7, "")</f>
         <v>41826</v>
@@ -4205,7 +4211,7 @@
         <v>41832</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4214,7 +4220,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(JulSun1+14)=CalendarYear,MONTH(JulSun1+14)=7),JulSun1+14, "")</f>
         <v>41833</v>
@@ -4244,7 +4250,7 @@
         <v>41839</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4253,7 +4259,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(JulSun1+21)=CalendarYear,MONTH(JulSun1+21)=7),JulSun1+21, "")</f>
         <v>41840</v>
@@ -4283,7 +4289,7 @@
         <v>41846</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4292,7 +4298,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(JulSun1+28)=CalendarYear,MONTH(JulSun1+28)=7),JulSun1+28, "")</f>
         <v>41847</v>
@@ -4322,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4331,7 +4337,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(JulSun1+35)=CalendarYear,MONTH(JulSun1+35)=7),JulSun1+35, "")</f>
         <v/>
@@ -4340,22 +4346,22 @@
         <f>IF(AND(YEAR(JulSun1+36)=CalendarYear,MONTH(JulSun1+36)=7),JulSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4376,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4386,24 +4392,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,8,1)</f>
         <v>41852</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4428,7 +4434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(AugSun1)=CalendarYear,MONTH(AugSun1)=8),AugSun1, "")</f>
         <v/>
@@ -4458,7 +4464,7 @@
         <v>41853</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4467,7 +4473,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(AugSun1+7)=CalendarYear,MONTH(AugSun1+7)=8),AugSun1+7, "")</f>
         <v>41854</v>
@@ -4497,7 +4503,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4506,7 +4512,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(AugSun1+14)=CalendarYear,MONTH(AugSun1+14)=8),AugSun1+14, "")</f>
         <v>41861</v>
@@ -4536,7 +4542,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4545,7 +4551,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(AugSun1+21)=CalendarYear,MONTH(AugSun1+21)=8),AugSun1+21, "")</f>
         <v>41868</v>
@@ -4575,7 +4581,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4584,7 +4590,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(AugSun1+28)=CalendarYear,MONTH(AugSun1+28)=8),AugSun1+28, "")</f>
         <v>41875</v>
@@ -4614,7 +4620,7 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4623,7 +4629,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29">
         <f>IF(AND(YEAR(AugSun1+35)=CalendarYear,MONTH(AugSun1+35)=8),AugSun1+35, "")</f>
         <v>41882</v>
@@ -4632,22 +4638,22 @@
         <f>IF(AND(YEAR(AugSun1+36)=CalendarYear,MONTH(AugSun1+36)=8),AugSun1+36, "")</f>
         <v/>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4668,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4678,24 +4684,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="9"/>
+    <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" ht="59.25" customHeight="1" thickBot="1">
-      <c r="B1" s="34">
+      <c r="B1" s="37">
         <f>DATE(CalendarYear,9,1)</f>
         <v>41883</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:8" ht="21.75" customHeight="1">
       <c r="B2" s="23" t="s">
@@ -4720,7 +4726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.1" customHeight="1">
+    <row r="3" spans="2:8" ht="14" customHeight="1">
       <c r="B3" s="10" t="str">
         <f>IF(AND(YEAR(SepSun1)=CalendarYear,MONTH(SepSun1)=9),SepSun1, "")</f>
         <v/>
@@ -4750,7 +4756,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="57.95" customHeight="1">
+    <row r="4" spans="2:8" ht="58" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -4759,7 +4765,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:8" ht="14.1" customHeight="1">
+    <row r="5" spans="2:8" ht="14" customHeight="1">
       <c r="B5" s="17">
         <f>IF(AND(YEAR(SepSun1+7)=CalendarYear,MONTH(SepSun1+7)=9),SepSun1+7, "")</f>
         <v>41889</v>
@@ -4789,7 +4795,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="57.95" customHeight="1">
+    <row r="6" spans="2:8" ht="58" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -4798,7 +4804,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="2:8" ht="14.1" customHeight="1">
+    <row r="7" spans="2:8" ht="14" customHeight="1">
       <c r="B7" s="17">
         <f>IF(AND(YEAR(SepSun1+14)=CalendarYear,MONTH(SepSun1+14)=9),SepSun1+14, "")</f>
         <v>41896</v>
@@ -4828,7 +4834,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="57.95" customHeight="1">
+    <row r="8" spans="2:8" ht="58" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -4837,7 +4843,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="14.1" customHeight="1">
+    <row r="9" spans="2:8" ht="14" customHeight="1">
       <c r="B9" s="18">
         <f>IF(AND(YEAR(SepSun1+21)=CalendarYear,MONTH(SepSun1+21)=9),SepSun1+21, "")</f>
         <v>41903</v>
@@ -4867,7 +4873,7 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="57.95" customHeight="1">
+    <row r="10" spans="2:8" ht="58" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -4876,7 +4882,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="14.1" customHeight="1">
+    <row r="11" spans="2:8" ht="14" customHeight="1">
       <c r="B11" s="18">
         <f>IF(AND(YEAR(SepSun1+28)=CalendarYear,MONTH(SepSun1+28)=9),SepSun1+28, "")</f>
         <v>41910</v>
@@ -4906,7 +4912,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="57.95" customHeight="1">
+    <row r="12" spans="2:8" ht="58" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -4915,28 +4921,28 @@
       <c r="G12" s="14"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="14.1" customHeight="1">
+    <row r="13" spans="2:8" ht="14" customHeight="1">
       <c r="B13" s="29" t="str">
         <f>IF(AND(YEAR(SepSun1+35)=CalendarYear,MONTH(SepSun1+35)=9),SepSun1+35, "")</f>
         <v/>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="57.95" customHeight="1" thickBot="1">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
